--- a/results/1.xlsx
+++ b/results/1.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6496460919584406</v>
+        <v>0.6085256607351038</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04336023380196887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0614951192938271</v>
+        <v>0.0439430287197989</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01197103206158221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08707482993197278</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02734660032958066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9046618938446045</v>
+        <v>0.7004992961883545</v>
       </c>
     </row>
   </sheetData>

--- a/results/1.xlsx
+++ b/results/1.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7343833446502686</v>
+        <v>37.39305210113525</v>
       </c>
     </row>
   </sheetData>
